--- a/clcore_ig/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/clcore_ig/output/StructureDefinition-CorePacienteCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4633" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4634" uniqueCount="695">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Este Perfil ha sido desarrollado para cubrir las necesidades del Caso de Uso de Receta Electrónica. Sin embargo, se ha modelado con el fin de cubrir las necesidades nacionales de un Recurso Paciente para un Historial Clínico Nacional</t>
+    <t>Este Perfil se ha modelado con el fin de cubrir las necesidades nacionales de un Recurso Paciente para un Historial Clínico Nacional</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -499,10 +499,10 @@
 </t>
   </si>
   <si>
-    <t>Codigo de Identificación de países</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye códigos de paises de origen</t>
+    <t>Codigo de Paises</t>
+  </si>
+  <si>
+    <t>Esta extensión incluye códigos de paises</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -581,6 +581,12 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
@@ -593,7 +599,7 @@
     <t>usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
-    <t>Se definirá este uso siempre como "official" debido a que cualquier ID presentado para motivos de este perfil deb ser de este tipo</t>
+    <t>De contar el Paciente con una Cédula de Identidad Nacional, se sugiere el uso de esta como identificador</t>
   </si>
   <si>
     <t>Se definirá como official pues en una primera etapa solo se considerarán los identidicadores en esa categoría. Para una segunda etapa se abrirá este elemento para cualquier clase de identificador</t>
@@ -663,10 +669,10 @@
     <t>Se usa esta extensión para agregarle al tipo de documento el país de origen de este</t>
   </si>
   <si>
-    <t>Patient.identifier.type.extension:paises</t>
-  </si>
-  <si>
-    <t>paises</t>
+    <t>Patient.identifier.type.extension:paisEmisionDocumento</t>
+  </si>
+  <si>
+    <t>paisEmisionDocumento</t>
   </si>
   <si>
     <t>Patient.identifier.type.coding</t>
@@ -701,12 +707,6 @@
   </si>
   <si>
     <t>Patient.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Patient.identifier.type.coding.system</t>
@@ -1777,7 +1777,7 @@
     <t>Nombre registrado oficialmente en el Registro Civil</t>
   </si>
   <si>
-    <t>El use DEBE ser de valor de código ´official´</t>
+    <t>El use DEBE ser de valor de código "official"</t>
   </si>
   <si>
     <t>Patient.contact.name.text</t>
@@ -1993,7 +1993,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl)
 </t>
   </si>
   <si>
@@ -2499,7 +2499,7 @@
   <cols>
     <col min="1" max="1" width="56.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.5390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.19921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -2507,7 +2507,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="202.92578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4315,7 +4315,7 @@
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>82</v>
@@ -4327,12 +4327,14 @@
         <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4372,7 +4374,7 @@
         <v>138</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>82</v>
@@ -4381,7 +4383,7 @@
         <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4396,7 +4398,7 @@
         <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>82</v>
@@ -4413,10 +4415,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4442,16 +4444,16 @@
         <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4476,13 +4478,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -4500,7 +4502,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4515,7 +4517,7 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
@@ -4532,10 +4534,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4558,19 +4560,19 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4595,13 +4597,13 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4619,7 +4621,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4634,7 +4636,7 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>82</v>
@@ -4643,7 +4645,7 @@
         <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4651,10 +4653,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4766,10 +4768,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4795,10 +4797,10 @@
         <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4840,7 +4842,7 @@
         <v>138</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>82</v>
@@ -4849,7 +4851,7 @@
         <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4881,13 +4883,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>82</v>
@@ -4966,7 +4968,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4998,10 +5000,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5024,19 +5026,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5085,7 +5087,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5100,7 +5102,7 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
@@ -5109,7 +5111,7 @@
         <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5117,10 +5119,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5232,10 +5234,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5261,10 +5263,10 @@
         <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>160</v>
@@ -5308,7 +5310,7 @@
         <v>138</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>82</v>
@@ -5317,7 +5319,7 @@
         <v>139</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -7030,10 +7032,10 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>160</v>
@@ -7077,7 +7079,7 @@
         <v>138</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>82</v>
@@ -7086,7 +7088,7 @@
         <v>139</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7181,7 +7183,7 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y40" t="s" s="2">
         <v>330</v>
@@ -7669,7 +7671,7 @@
         <v>139</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7786,7 +7788,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -8662,10 +8664,10 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>160</v>
@@ -8709,7 +8711,7 @@
         <v>138</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>82</v>
@@ -8718,7 +8720,7 @@
         <v>139</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8813,7 +8815,7 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y54" t="s" s="2">
         <v>330</v>
@@ -9832,10 +9834,10 @@
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>160</v>
@@ -9879,7 +9881,7 @@
         <v>138</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>82</v>
@@ -9888,7 +9890,7 @@
         <v>139</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9979,7 +9981,7 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y64" t="s" s="2">
         <v>437</v>
@@ -10217,7 +10219,7 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
@@ -10566,7 +10568,7 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y69" t="s" s="2">
         <v>474</v>
@@ -11005,7 +11007,7 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>505</v>
@@ -11040,7 +11042,7 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y73" t="s" s="2">
         <v>508</v>
@@ -11649,7 +11651,7 @@
         <v>139</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11766,7 +11768,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11943,7 +11945,7 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>549</v>
@@ -11978,7 +11980,7 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y81" t="s" s="2">
         <v>552</v>
@@ -12178,10 +12180,10 @@
         <v>135</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>160</v>
@@ -12225,7 +12227,7 @@
         <v>138</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>82</v>
@@ -12234,7 +12236,7 @@
         <v>139</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12292,19 +12294,19 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12353,7 +12355,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12368,7 +12370,7 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>82</v>
@@ -12377,7 +12379,7 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12765,10 +12767,10 @@
         <v>135</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>160</v>
@@ -12812,7 +12814,7 @@
         <v>138</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>82</v>
@@ -12821,7 +12823,7 @@
         <v>139</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12916,7 +12918,7 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y89" t="s" s="2">
         <v>330</v>
@@ -13404,7 +13406,7 @@
         <v>139</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13521,7 +13523,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -14429,7 +14431,7 @@
         <v>82</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y102" t="s" s="2">
         <v>474</v>
@@ -14980,10 +14982,10 @@
         <v>135</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>160</v>
@@ -15036,7 +15038,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15213,7 +15215,7 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>621</v>
@@ -15250,7 +15252,7 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y109" t="s" s="2">
         <v>625</v>
@@ -15686,10 +15688,10 @@
         <v>135</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>160</v>
@@ -15733,7 +15735,7 @@
         <v>138</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AD113" t="s" s="2">
         <v>82</v>
@@ -15742,7 +15744,7 @@
         <v>139</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15952,7 +15954,7 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y115" t="s" s="2">
         <v>656</v>
@@ -16624,10 +16626,10 @@
         <v>135</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>160</v>
@@ -16680,7 +16682,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17007,7 +17009,7 @@
         <v>82</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y124" t="s" s="2">
         <v>692</v>
